--- a/testdata/PolicyCenter.xlsx
+++ b/testdata/PolicyCenter.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\asrikanth\git\AUT_FW_SEL_JAVA_GW_CM_BC_PC_CC\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C66938-C894-4FED-AACD-67F677EAF709}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01834AC-90F2-41DF-936E-9FD1159F3B8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="15000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="8" r:id="rId1"/>
     <sheet name="Coverage" sheetId="7" r:id="rId2"/>
     <sheet name="Login" sheetId="1" r:id="rId3"/>
-    <sheet name="AccountCreation" sheetId="2" r:id="rId4"/>
-    <sheet name="Policy" sheetId="3" r:id="rId5"/>
-    <sheet name="AcctSummary" sheetId="5" r:id="rId6"/>
+    <sheet name="createAccount" sheetId="2" r:id="rId4"/>
+    <sheet name="organizations" sheetId="9" r:id="rId5"/>
+    <sheet name="Policy" sheetId="3" r:id="rId6"/>
+    <sheet name="AcctSummary" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="296">
   <si>
     <t>TD_UserName</t>
   </si>
@@ -116,15 +117,6 @@
     <t>TD_CompanyName</t>
   </si>
   <si>
-    <t>QA1BILLINGPLAN01</t>
-  </si>
-  <si>
-    <t>BillPlan1</t>
-  </si>
-  <si>
-    <t>BillPlan2</t>
-  </si>
-  <si>
     <t>BillPlan3</t>
   </si>
   <si>
@@ -134,18 +126,9 @@
     <t>BillPlan5</t>
   </si>
   <si>
-    <t>Insured</t>
-  </si>
-  <si>
-    <t>Equity-Based Delinquency Plan</t>
-  </si>
-  <si>
     <t>Wright Construction</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Direct Bill</t>
   </si>
   <si>
@@ -791,57 +774,12 @@
     <t>AUT_TS_118</t>
   </si>
   <si>
-    <t>Account No</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>Last name</t>
-  </si>
-  <si>
-    <t>Office Phone</t>
-  </si>
-  <si>
     <t>Fax</t>
   </si>
   <si>
-    <t>Home Phone</t>
-  </si>
-  <si>
-    <t>Work Phone</t>
-  </si>
-  <si>
-    <t>Mobile Phone</t>
-  </si>
-  <si>
-    <t>Fax Phone</t>
-  </si>
-  <si>
-    <t>Primary Phone</t>
-  </si>
-  <si>
-    <t>Primary Email</t>
-  </si>
-  <si>
-    <t>Secondary Email</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
-    <t>Address 1</t>
-  </si>
-  <si>
-    <t>Address 2</t>
-  </si>
-  <si>
-    <t>Address 3</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -851,15 +789,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>ZIP Code</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t xml:space="preserve">NB_ModProg_AddintionalInsured Add </t>
   </si>
   <si>
@@ -870,6 +799,126 @@
   </si>
   <si>
     <t>&gt; Secondary Named Insured Add &gt; UW Company Mod &gt; Driver Info Add &gt; Vehicle Info Add &gt; Coverages Modification &gt; Prior policies Entry &gt; Billing Type 1 &gt; 6 months schedule &gt; Premium match&gt;Policy Details Review&gt;Forms trigger and ordering validation&gt;Billing type &gt; PC &gt; Secondary Named Insured Del"</t>
+  </si>
+  <si>
+    <t>OfficePhone</t>
+  </si>
+  <si>
+    <t>HomePhone</t>
+  </si>
+  <si>
+    <t>WorkPhone</t>
+  </si>
+  <si>
+    <t>MobilePhone</t>
+  </si>
+  <si>
+    <t>FaxPhone</t>
+  </si>
+  <si>
+    <t>PrimaryPhone</t>
+  </si>
+  <si>
+    <t>PrimaryEmail</t>
+  </si>
+  <si>
+    <t>SecondaryEmail</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Address3</t>
+  </si>
+  <si>
+    <t>ZIPCode</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>PersonalAccount1</t>
+  </si>
+  <si>
+    <t>CompanyAccount1</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>South Avenue</t>
+  </si>
+  <si>
+    <t>DownTown</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>AddressType</t>
+  </si>
+  <si>
+    <t>AccountNickname</t>
+  </si>
+  <si>
+    <t>OrganizationName</t>
+  </si>
+  <si>
+    <t>OrganizationType</t>
+  </si>
+  <si>
+    <t>Organization1</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
+  </si>
+  <si>
+    <t>Search_Button</t>
+  </si>
+  <si>
+    <t>Reset_Button</t>
+  </si>
+  <si>
+    <t>ProducerTier</t>
+  </si>
+  <si>
+    <t>ProducerCode</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>ACV Property Insurance</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>301-008578</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>OfficialID</t>
   </si>
 </sst>
 </file>
@@ -1293,39 +1342,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E2" s="15">
         <v>44286</v>
@@ -1335,21 +1384,21 @@
       </c>
       <c r="G2" s="7"/>
       <c r="I2" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E3" s="15">
         <v>44286</v>
@@ -1361,16 +1410,16 @@
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E4" s="15">
         <v>44286</v>
@@ -1382,16 +1431,16 @@
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E5" s="15">
         <v>44286</v>
@@ -1403,13 +1452,13 @@
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1418,11 +1467,11 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -1431,11 +1480,11 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1444,11 +1493,11 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -1457,11 +1506,11 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1470,11 +1519,11 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -1483,11 +1532,11 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1496,11 +1545,11 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1509,11 +1558,11 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1522,11 +1571,11 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -1535,11 +1584,11 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1548,11 +1597,11 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1561,11 +1610,11 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -1574,11 +1623,11 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -1587,11 +1636,11 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -1600,11 +1649,11 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -1613,11 +1662,11 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1626,11 +1675,11 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -1639,11 +1688,11 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -1652,11 +1701,11 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1665,11 +1714,11 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -1678,11 +1727,11 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -1691,11 +1740,11 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -1704,11 +1753,11 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1717,11 +1766,11 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -1730,11 +1779,11 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -1743,11 +1792,11 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -1756,11 +1805,11 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -1769,11 +1818,11 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1782,11 +1831,11 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -1795,11 +1844,11 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -1808,11 +1857,11 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -1821,11 +1870,11 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -1834,11 +1883,11 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -1847,11 +1896,11 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -1860,11 +1909,11 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -1873,11 +1922,11 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -1886,11 +1935,11 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -1899,11 +1948,11 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -1912,11 +1961,11 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -1925,11 +1974,11 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B46" s="14"/>
       <c r="C46" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -1938,11 +1987,11 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -1951,11 +2000,11 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B48" s="14"/>
       <c r="C48" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -1964,11 +2013,11 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -1977,11 +2026,11 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B50" s="14"/>
       <c r="C50" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -1990,11 +2039,11 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B51" s="14"/>
       <c r="C51" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -2003,11 +2052,11 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B52" s="14"/>
       <c r="C52" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -2016,11 +2065,11 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B53" s="14"/>
       <c r="C53" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -2029,11 +2078,11 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
@@ -2042,11 +2091,11 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B55" s="14"/>
       <c r="C55" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -2055,11 +2104,11 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -2068,11 +2117,11 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B57" s="14"/>
       <c r="C57" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -2081,11 +2130,11 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B58" s="14"/>
       <c r="C58" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -2094,11 +2143,11 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -2107,11 +2156,11 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -2120,11 +2169,11 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -2133,11 +2182,11 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B62" s="14"/>
       <c r="C62" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -2146,11 +2195,11 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B63" s="14"/>
       <c r="C63" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -2159,11 +2208,11 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -2172,11 +2221,11 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B65" s="14"/>
       <c r="C65" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -2185,11 +2234,11 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B66" s="14"/>
       <c r="C66" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -2198,11 +2247,11 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B67" s="14"/>
       <c r="C67" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -2211,11 +2260,11 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B68" s="14"/>
       <c r="C68" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -2224,11 +2273,11 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -2237,11 +2286,11 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B70" s="14"/>
       <c r="C70" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -2250,11 +2299,11 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B71" s="14"/>
       <c r="C71" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -2263,11 +2312,11 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B72" s="14"/>
       <c r="C72" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -2276,11 +2325,11 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B73" s="14"/>
       <c r="C73" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -2289,11 +2338,11 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B74" s="14"/>
       <c r="C74" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -2302,11 +2351,11 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B75" s="14"/>
       <c r="C75" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -2315,11 +2364,11 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -2328,11 +2377,11 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B77" s="14"/>
       <c r="C77" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -2341,11 +2390,11 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B78" s="14"/>
       <c r="C78" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
@@ -2354,11 +2403,11 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B79" s="14"/>
       <c r="C79" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -2367,11 +2416,11 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B80" s="14"/>
       <c r="C80" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -2380,11 +2429,11 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B81" s="14"/>
       <c r="C81" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -2393,11 +2442,11 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B82" s="14"/>
       <c r="C82" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -2406,11 +2455,11 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B83" s="14"/>
       <c r="C83" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -2419,11 +2468,11 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B84" s="14"/>
       <c r="C84" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -2432,11 +2481,11 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B85" s="14"/>
       <c r="C85" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
@@ -2445,11 +2494,11 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B86" s="14"/>
       <c r="C86" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -2458,11 +2507,11 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B87" s="14"/>
       <c r="C87" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
@@ -2471,11 +2520,11 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B88" s="14"/>
       <c r="C88" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -2484,11 +2533,11 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B89" s="14"/>
       <c r="C89" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -2497,11 +2546,11 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B90" s="14"/>
       <c r="C90" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
@@ -2510,11 +2559,11 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B91" s="14"/>
       <c r="C91" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -2523,11 +2572,11 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B92" s="14"/>
       <c r="C92" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -2536,11 +2585,11 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B93" s="14"/>
       <c r="C93" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -2549,11 +2598,11 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B94" s="14"/>
       <c r="C94" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -2562,11 +2611,11 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B95" s="14"/>
       <c r="C95" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -2575,11 +2624,11 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B96" s="14"/>
       <c r="C96" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -2588,11 +2637,11 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B97" s="14"/>
       <c r="C97" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -2601,11 +2650,11 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B98" s="14"/>
       <c r="C98" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
@@ -2614,11 +2663,11 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B99" s="14"/>
       <c r="C99" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -2627,11 +2676,11 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B100" s="14"/>
       <c r="C100" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -2640,11 +2689,11 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B101" s="14"/>
       <c r="C101" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -2653,11 +2702,11 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B102" s="14"/>
       <c r="C102" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
@@ -2666,11 +2715,11 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B103" s="14"/>
       <c r="C103" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
@@ -2679,11 +2728,11 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B104" s="14"/>
       <c r="C104" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -2692,11 +2741,11 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B105" s="14"/>
       <c r="C105" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
@@ -2705,11 +2754,11 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B106" s="14"/>
       <c r="C106" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
@@ -2718,11 +2767,11 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B107" s="14"/>
       <c r="C107" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
@@ -2731,11 +2780,11 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B108" s="14"/>
       <c r="C108" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
@@ -2744,11 +2793,11 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B109" s="14"/>
       <c r="C109" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
@@ -2757,11 +2806,11 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B110" s="14"/>
       <c r="C110" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
@@ -2770,11 +2819,11 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B111" s="14"/>
       <c r="C111" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
@@ -2783,11 +2832,11 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B112" s="14"/>
       <c r="C112" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
@@ -2796,11 +2845,11 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B113" s="14"/>
       <c r="C113" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
@@ -2809,11 +2858,11 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B114" s="14"/>
       <c r="C114" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
@@ -2822,11 +2871,11 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B115" s="14"/>
       <c r="C115" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
@@ -2835,11 +2884,11 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B116" s="14"/>
       <c r="C116" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
@@ -2848,11 +2897,11 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B117" s="14"/>
       <c r="C117" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
@@ -2861,11 +2910,11 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B118" s="14"/>
       <c r="C118" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
@@ -2874,11 +2923,11 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B119" s="14"/>
       <c r="C119" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
@@ -2907,909 +2956,909 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="17" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="17" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="17" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="17" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="17" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="17" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="17" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="17" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="17" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="17" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="17" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="17" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="17" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="17" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="17" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="17" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="17" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="17" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="17" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="17" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="17" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="17" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3823,7 +3872,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3940,37 +3989,54 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3520C8-D792-4977-99E0-C45876A8E20A}">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="C1" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="D1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F1" t="s">
         <v>257</v>
@@ -3994,101 +4060,125 @@
         <v>263</v>
       </c>
       <c r="M1" t="s">
+        <v>248</v>
+      </c>
+      <c r="N1" t="s">
         <v>264</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>265</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>266</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>249</v>
+      </c>
+      <c r="R1" t="s">
+        <v>250</v>
+      </c>
+      <c r="S1" t="s">
+        <v>251</v>
+      </c>
+      <c r="T1" t="s">
         <v>267</v>
       </c>
-      <c r="Q1" t="s">
-        <v>268</v>
-      </c>
-      <c r="R1" t="s">
-        <v>269</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
+        <v>279</v>
+      </c>
+      <c r="V1" t="s">
+        <v>280</v>
+      </c>
+      <c r="W1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="T1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="F2">
+        <v>2015551002</v>
+      </c>
+      <c r="G2">
+        <v>2015551003</v>
+      </c>
+      <c r="H2">
+        <v>2015551004</v>
+      </c>
+      <c r="I2">
+        <v>2015551005</v>
+      </c>
+      <c r="J2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K2" t="s">
+        <v>272</v>
+      </c>
+      <c r="M2" t="s">
+        <v>275</v>
+      </c>
+      <c r="N2" t="s">
+        <v>272</v>
+      </c>
+      <c r="O2" t="s">
+        <v>276</v>
+      </c>
+      <c r="P2" t="s">
+        <v>277</v>
+      </c>
+      <c r="U2" t="s">
+        <v>278</v>
+      </c>
+      <c r="V2" t="s">
+        <v>272</v>
+      </c>
+      <c r="W2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="U1" t="s">
+      <c r="B3" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="V1" t="s">
+      <c r="C3" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="W1" t="s">
-        <v>274</v>
-      </c>
-      <c r="X1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4097,6 +4187,97 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CB62B0-3E14-40DE-9CB1-C3C158CCA48E}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K1" t="s">
+        <v>290</v>
+      </c>
+      <c r="L1" t="s">
+        <v>285</v>
+      </c>
+      <c r="M1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I2" t="s">
+        <v>293</v>
+      </c>
+      <c r="L2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B240F2F-8AD3-49E3-9150-9222387F22C2}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -4120,36 +4301,36 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F2" s="8">
         <v>1000</v>
@@ -4157,7 +4338,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -4167,7 +4348,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -4177,7 +4358,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -4187,7 +4368,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -4201,11 +4382,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6705243-A037-4CA9-B29E-68E745D48062}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -4227,31 +4408,31 @@
         <v>26</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="12"/>
@@ -4260,7 +4441,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="12"/>
@@ -4269,7 +4450,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="12"/>
@@ -4278,7 +4459,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="12"/>

--- a/testdata/PolicyCenter.xlsx
+++ b/testdata/PolicyCenter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\asrikanth\git\AUT_FW_SEL_JAVA_GW_CM_BC_PC_CC\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\training2\git\AUT_FW_SEL_JAVA_GW_CM_BC_PC_CC\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01834AC-90F2-41DF-936E-9FD1159F3B8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8017E628-3042-4F02-A41B-0927CE19E755}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="10425" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,9 @@
     <sheet name="createAccount" sheetId="2" r:id="rId4"/>
     <sheet name="organizations" sheetId="9" r:id="rId5"/>
     <sheet name="Policy" sheetId="3" r:id="rId6"/>
-    <sheet name="AcctSummary" sheetId="5" r:id="rId7"/>
+    <sheet name="PA_Coverages" sheetId="10" r:id="rId7"/>
+    <sheet name="DropDown_List" sheetId="11" r:id="rId8"/>
+    <sheet name="AcctSummary" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="306">
   <si>
     <t>TD_UserName</t>
   </si>
@@ -919,13 +921,43 @@
   </si>
   <si>
     <t>OfficialID</t>
+  </si>
+  <si>
+    <t>Auto Liability Package</t>
+  </si>
+  <si>
+    <t>50/100/25</t>
+  </si>
+  <si>
+    <t>50/100/50</t>
+  </si>
+  <si>
+    <t>100/200/50</t>
+  </si>
+  <si>
+    <t>250/500/100</t>
+  </si>
+  <si>
+    <t>100k CSL</t>
+  </si>
+  <si>
+    <t>250K CSL</t>
+  </si>
+  <si>
+    <t>500K CSL</t>
+  </si>
+  <si>
+    <t>1M CSL</t>
+  </si>
+  <si>
+    <t>AutoLiabilityPackage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -944,6 +976,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF545C67"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -993,7 +1031,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1042,6 +1080,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3871,9 +3910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4190,7 +4227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CB62B0-3E14-40DE-9CB1-C3C158CCA48E}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -4383,6 +4420,119 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA30D2C-A6AD-4243-AEBF-6E8FF22D408A}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FBBB6483-8531-4834-A54F-DAAC8D7CEEAC}">
+          <x14:formula1>
+            <xm:f>DropDown_List!$A$2:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2B26B5-0CDF-476F-B1DF-C4687CDF970F}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6705243-A037-4CA9-B29E-68E745D48062}">
   <dimension ref="A1:E6"/>
   <sheetViews>

--- a/testdata/PolicyCenter.xlsx
+++ b/testdata/PolicyCenter.xlsx
@@ -5,25 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\training2\git\AUT_FW_SEL_JAVA_GW_CM_BC_PC_CC\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labor\git\AUT_FW_SEL_JAVA_GW_CM_BC_PC_CC\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8017E628-3042-4F02-A41B-0927CE19E755}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8382C13D-2368-47D0-AFDB-819F10BE7F1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="10425" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="8" r:id="rId1"/>
     <sheet name="Coverage" sheetId="7" r:id="rId2"/>
-    <sheet name="Login" sheetId="1" r:id="rId3"/>
+    <sheet name="login" sheetId="1" r:id="rId3"/>
     <sheet name="createAccount" sheetId="2" r:id="rId4"/>
     <sheet name="organizations" sheetId="9" r:id="rId5"/>
     <sheet name="Policy" sheetId="3" r:id="rId6"/>
-    <sheet name="PA_Coverages" sheetId="10" r:id="rId7"/>
-    <sheet name="DropDown_List" sheetId="11" r:id="rId8"/>
-    <sheet name="AcctSummary" sheetId="5" r:id="rId9"/>
+    <sheet name="AcctSummary" sheetId="5" r:id="rId7"/>
+    <sheet name="PA_Coverages" sheetId="10" r:id="rId8"/>
+    <sheet name="DropDown_List" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="304">
   <si>
     <t>TD_UserName</t>
   </si>
@@ -119,15 +119,6 @@
     <t>TD_CompanyName</t>
   </si>
   <si>
-    <t>BillPlan3</t>
-  </si>
-  <si>
-    <t>BillPlan4</t>
-  </si>
-  <si>
-    <t>BillPlan5</t>
-  </si>
-  <si>
     <t>Wright Construction</t>
   </si>
   <si>
@@ -845,12 +836,6 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>PersonalAccount1</t>
-  </si>
-  <si>
-    <t>CompanyAccount1</t>
-  </si>
-  <si>
     <t>Random</t>
   </si>
   <si>
@@ -884,9 +869,6 @@
     <t>OrganizationType</t>
   </si>
   <si>
-    <t>Organization1</t>
-  </si>
-  <si>
     <t>ZipCode</t>
   </si>
   <si>
@@ -923,34 +905,46 @@
     <t>OfficialID</t>
   </si>
   <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>AUT_PC_AC_02</t>
+  </si>
+  <si>
+    <t>AUT_PC_AC_03</t>
+  </si>
+  <si>
+    <t>100/200/50</t>
+  </si>
+  <si>
+    <t>50/100/50</t>
+  </si>
+  <si>
+    <t>AutoLiabilityPackage</t>
+  </si>
+  <si>
+    <t>1M CSL</t>
+  </si>
+  <si>
+    <t>500K CSL</t>
+  </si>
+  <si>
+    <t>250K CSL</t>
+  </si>
+  <si>
+    <t>100k CSL</t>
+  </si>
+  <si>
+    <t>250/500/100</t>
+  </si>
+  <si>
+    <t>50/100/25</t>
+  </si>
+  <si>
     <t>Auto Liability Package</t>
-  </si>
-  <si>
-    <t>50/100/25</t>
-  </si>
-  <si>
-    <t>50/100/50</t>
-  </si>
-  <si>
-    <t>100/200/50</t>
-  </si>
-  <si>
-    <t>250/500/100</t>
-  </si>
-  <si>
-    <t>100k CSL</t>
-  </si>
-  <si>
-    <t>250K CSL</t>
-  </si>
-  <si>
-    <t>500K CSL</t>
-  </si>
-  <si>
-    <t>1M CSL</t>
-  </si>
-  <si>
-    <t>AutoLiabilityPackage</t>
   </si>
 </sst>
 </file>
@@ -1363,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51800D75-DB08-42CF-A899-19BD3418CCB7}">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,39 +1375,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="E1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E2" s="15">
         <v>44286</v>
@@ -1423,21 +1417,21 @@
       </c>
       <c r="G2" s="7"/>
       <c r="I2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E3" s="15">
         <v>44286</v>
@@ -1449,16 +1443,16 @@
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E4" s="15">
         <v>44286</v>
@@ -1470,16 +1464,16 @@
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E5" s="15">
         <v>44286</v>
@@ -1491,13 +1485,13 @@
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1506,11 +1500,11 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -1519,11 +1513,11 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1532,11 +1526,11 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -1545,11 +1539,11 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1558,11 +1552,11 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -1571,11 +1565,11 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1584,11 +1578,11 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1597,11 +1591,11 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1610,11 +1604,11 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -1623,11 +1617,11 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1636,11 +1630,11 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1649,11 +1643,11 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -1662,11 +1656,11 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -1675,11 +1669,11 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -1688,11 +1682,11 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -1701,11 +1695,11 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1714,11 +1708,11 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -1727,11 +1721,11 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -1740,11 +1734,11 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1753,11 +1747,11 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -1766,11 +1760,11 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -1779,11 +1773,11 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -1792,11 +1786,11 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1805,11 +1799,11 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -1818,11 +1812,11 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -1831,11 +1825,11 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -1844,11 +1838,11 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -1857,11 +1851,11 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1870,11 +1864,11 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -1883,11 +1877,11 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -1896,11 +1890,11 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -1909,11 +1903,11 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -1922,11 +1916,11 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -1935,11 +1929,11 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -1948,11 +1942,11 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -1961,11 +1955,11 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -1974,11 +1968,11 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -1987,11 +1981,11 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -2000,11 +1994,11 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -2013,11 +2007,11 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B46" s="14"/>
       <c r="C46" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -2026,11 +2020,11 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -2039,11 +2033,11 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B48" s="14"/>
       <c r="C48" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -2052,11 +2046,11 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -2065,11 +2059,11 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B50" s="14"/>
       <c r="C50" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -2078,11 +2072,11 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B51" s="14"/>
       <c r="C51" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -2091,11 +2085,11 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B52" s="14"/>
       <c r="C52" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -2104,11 +2098,11 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B53" s="14"/>
       <c r="C53" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -2117,11 +2111,11 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
@@ -2130,11 +2124,11 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B55" s="14"/>
       <c r="C55" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -2143,11 +2137,11 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -2156,11 +2150,11 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B57" s="14"/>
       <c r="C57" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -2169,11 +2163,11 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B58" s="14"/>
       <c r="C58" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -2182,11 +2176,11 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -2195,11 +2189,11 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -2208,11 +2202,11 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -2221,11 +2215,11 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B62" s="14"/>
       <c r="C62" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -2234,11 +2228,11 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B63" s="14"/>
       <c r="C63" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -2247,11 +2241,11 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -2260,11 +2254,11 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B65" s="14"/>
       <c r="C65" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -2273,11 +2267,11 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B66" s="14"/>
       <c r="C66" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -2286,11 +2280,11 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B67" s="14"/>
       <c r="C67" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -2299,11 +2293,11 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B68" s="14"/>
       <c r="C68" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -2312,11 +2306,11 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -2325,11 +2319,11 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B70" s="14"/>
       <c r="C70" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -2338,11 +2332,11 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B71" s="14"/>
       <c r="C71" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -2351,11 +2345,11 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B72" s="14"/>
       <c r="C72" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -2364,11 +2358,11 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B73" s="14"/>
       <c r="C73" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -2377,11 +2371,11 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B74" s="14"/>
       <c r="C74" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -2390,11 +2384,11 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B75" s="14"/>
       <c r="C75" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -2403,11 +2397,11 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -2416,11 +2410,11 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B77" s="14"/>
       <c r="C77" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -2429,11 +2423,11 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B78" s="14"/>
       <c r="C78" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
@@ -2442,11 +2436,11 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B79" s="14"/>
       <c r="C79" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -2455,11 +2449,11 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B80" s="14"/>
       <c r="C80" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -2468,11 +2462,11 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B81" s="14"/>
       <c r="C81" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -2481,11 +2475,11 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B82" s="14"/>
       <c r="C82" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -2494,11 +2488,11 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B83" s="14"/>
       <c r="C83" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -2507,11 +2501,11 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B84" s="14"/>
       <c r="C84" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -2520,11 +2514,11 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B85" s="14"/>
       <c r="C85" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
@@ -2533,11 +2527,11 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B86" s="14"/>
       <c r="C86" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -2546,11 +2540,11 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B87" s="14"/>
       <c r="C87" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
@@ -2559,11 +2553,11 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B88" s="14"/>
       <c r="C88" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -2572,11 +2566,11 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B89" s="14"/>
       <c r="C89" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -2585,11 +2579,11 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B90" s="14"/>
       <c r="C90" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
@@ -2598,11 +2592,11 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B91" s="14"/>
       <c r="C91" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -2611,11 +2605,11 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B92" s="14"/>
       <c r="C92" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -2624,11 +2618,11 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B93" s="14"/>
       <c r="C93" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -2637,11 +2631,11 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B94" s="14"/>
       <c r="C94" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -2650,11 +2644,11 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B95" s="14"/>
       <c r="C95" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -2663,11 +2657,11 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B96" s="14"/>
       <c r="C96" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -2676,11 +2670,11 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B97" s="14"/>
       <c r="C97" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -2689,11 +2683,11 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B98" s="14"/>
       <c r="C98" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
@@ -2702,11 +2696,11 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B99" s="14"/>
       <c r="C99" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -2715,11 +2709,11 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B100" s="14"/>
       <c r="C100" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -2728,11 +2722,11 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B101" s="14"/>
       <c r="C101" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -2741,11 +2735,11 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B102" s="14"/>
       <c r="C102" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
@@ -2754,11 +2748,11 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B103" s="14"/>
       <c r="C103" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
@@ -2767,11 +2761,11 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B104" s="14"/>
       <c r="C104" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -2780,11 +2774,11 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B105" s="14"/>
       <c r="C105" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
@@ -2793,11 +2787,11 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B106" s="14"/>
       <c r="C106" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
@@ -2806,11 +2800,11 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B107" s="14"/>
       <c r="C107" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
@@ -2819,11 +2813,11 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B108" s="14"/>
       <c r="C108" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
@@ -2832,11 +2826,11 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B109" s="14"/>
       <c r="C109" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
@@ -2845,11 +2839,11 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B110" s="14"/>
       <c r="C110" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
@@ -2858,11 +2852,11 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B111" s="14"/>
       <c r="C111" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
@@ -2871,11 +2865,11 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B112" s="14"/>
       <c r="C112" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
@@ -2884,11 +2878,11 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B113" s="14"/>
       <c r="C113" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
@@ -2897,11 +2891,11 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B114" s="14"/>
       <c r="C114" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
@@ -2910,11 +2904,11 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B115" s="14"/>
       <c r="C115" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
@@ -2923,11 +2917,11 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B116" s="14"/>
       <c r="C116" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
@@ -2936,11 +2930,11 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B117" s="14"/>
       <c r="C117" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
@@ -2949,11 +2943,11 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B118" s="14"/>
       <c r="C118" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
@@ -2962,11 +2956,11 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B119" s="14"/>
       <c r="C119" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
@@ -2980,10 +2974,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E041C3-4934-4F0F-A635-994A23E11089}">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2991,913 +2985,1006 @@
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F2" s="15">
+        <v>44286</v>
+      </c>
+      <c r="G2" s="15">
+        <v>44289</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3" s="15">
+        <v>44286</v>
+      </c>
+      <c r="G3" s="15">
+        <v>44289</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4" s="15">
+        <v>44286</v>
+      </c>
+      <c r="G4" s="15">
+        <v>44289</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F5" s="15">
+        <v>44286</v>
+      </c>
+      <c r="G5" s="15">
+        <v>44289</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3908,13 +3995,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -4015,6 +4104,28 @@
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4026,10 +4137,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3520C8-D792-4977-99E0-C45876A8E20A}">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4037,185 +4148,216 @@
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8">
+        <v>2015551002</v>
+      </c>
+      <c r="H2" s="8">
+        <v>2015551003</v>
+      </c>
+      <c r="I2" s="8">
+        <v>2015551004</v>
+      </c>
+      <c r="J2" s="8">
+        <v>2015551005</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="D1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G1" t="s">
-        <v>258</v>
-      </c>
-      <c r="H1" t="s">
-        <v>259</v>
-      </c>
-      <c r="I1" t="s">
-        <v>260</v>
-      </c>
-      <c r="J1" t="s">
-        <v>261</v>
-      </c>
-      <c r="K1" t="s">
-        <v>262</v>
-      </c>
-      <c r="L1" t="s">
-        <v>263</v>
-      </c>
-      <c r="M1" t="s">
-        <v>248</v>
-      </c>
-      <c r="N1" t="s">
-        <v>264</v>
-      </c>
-      <c r="O1" t="s">
-        <v>265</v>
-      </c>
-      <c r="P1" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>249</v>
-      </c>
-      <c r="R1" t="s">
-        <v>250</v>
-      </c>
-      <c r="S1" t="s">
-        <v>251</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="L2" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="U1" t="s">
-        <v>279</v>
-      </c>
-      <c r="V1" t="s">
-        <v>280</v>
-      </c>
-      <c r="W1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="M2" s="8"/>
+      <c r="N2" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="O2" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="F2">
+      <c r="W2" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" s="8">
         <v>2015551002</v>
       </c>
-      <c r="G2">
-        <v>2015551003</v>
-      </c>
-      <c r="H2">
-        <v>2015551004</v>
-      </c>
-      <c r="I2">
-        <v>2015551005</v>
-      </c>
-      <c r="J2" t="s">
-        <v>274</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q3" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="M2" t="s">
-        <v>275</v>
-      </c>
-      <c r="N2" t="s">
-        <v>272</v>
-      </c>
-      <c r="O2" t="s">
-        <v>276</v>
-      </c>
-      <c r="P2" t="s">
-        <v>277</v>
-      </c>
-      <c r="U2" t="s">
-        <v>278</v>
-      </c>
-      <c r="V2" t="s">
-        <v>272</v>
-      </c>
-      <c r="W2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="W3" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>267</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4225,18 +4367,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CB62B0-3E14-40DE-9CB1-C3C158CCA48E}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -4253,60 +4395,80 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" t="s">
         <v>281</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>282</v>
       </c>
-      <c r="D1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1" t="s">
         <v>284</v>
       </c>
-      <c r="H1" t="s">
-        <v>287</v>
-      </c>
-      <c r="I1" t="s">
-        <v>288</v>
-      </c>
-      <c r="J1" t="s">
-        <v>289</v>
-      </c>
-      <c r="K1" t="s">
-        <v>290</v>
-      </c>
       <c r="L1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="I2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="L2" t="s">
-        <v>294</v>
+      <c r="B3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" t="s">
+        <v>270</v>
+      </c>
+      <c r="I3" t="s">
+        <v>287</v>
+      </c>
+      <c r="L3" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -4338,36 +4500,36 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F2" s="8">
         <v>1000</v>
@@ -4375,7 +4537,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -4385,7 +4547,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -4395,7 +4557,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -4405,7 +4567,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -4420,119 +4582,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA30D2C-A6AD-4243-AEBF-6E8FF22D408A}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FBBB6483-8531-4834-A54F-DAAC8D7CEEAC}">
-          <x14:formula1>
-            <xm:f>DropDown_List!$A$2:$A$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B3</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2B26B5-0CDF-476F-B1DF-C4687CDF970F}">
-  <dimension ref="A1:A9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6705243-A037-4CA9-B29E-68E745D48062}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -4558,31 +4607,31 @@
         <v>26</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="12"/>
@@ -4591,7 +4640,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="12"/>
@@ -4600,7 +4649,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="12"/>
@@ -4609,7 +4658,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="12"/>
@@ -4620,4 +4669,117 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB72CC37-2FC1-4BE3-AA8A-0E623FF584F9}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FBBB6483-8531-4834-A54F-DAAC8D7CEEAC}">
+          <x14:formula1>
+            <xm:f>DropDown_List!$A$2:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC99AEE-DABB-4E59-B6CF-2F1DDF9B2D9F}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testdata/PolicyCenter.xlsx
+++ b/testdata/PolicyCenter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labor\git\AUT_FW_SEL_JAVA_GW_CM_BC_PC_CC\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\training2\git\AUT_FW_SEL_JAVA_GW_CM_BC_PC_CC\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8382C13D-2368-47D0-AFDB-819F10BE7F1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A4E8CB-7FA0-4ADD-9CEE-EA8AC6C61051}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="10425" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="306">
   <si>
     <t>TD_UserName</t>
   </si>
@@ -945,6 +945,12 @@
   </si>
   <si>
     <t>Auto Liability Package</t>
+  </si>
+  <si>
+    <t>AUT_PC_AC_05</t>
+  </si>
+  <si>
+    <t>Medical Limit</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1031,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1075,6 +1081,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3997,7 +4004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
@@ -4673,34 +4680,39 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB72CC37-2FC1-4BE3-AA8A-0E623FF584F9}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>304</v>
+      </c>
       <c r="B2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>294</v>
+        <v>302</v>
+      </c>
+      <c r="C2" s="19">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/PolicyCenter.xlsx
+++ b/testdata/PolicyCenter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\training2\git\AUT_FW_SEL_JAVA_GW_CM_BC_PC_CC\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\training2\git\AUT_FW_SEL_JAVA_GW_CM_BC_PC_CC12\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A4E8CB-7FA0-4ADD-9CEE-EA8AC6C61051}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B0B038-A94A-402B-972F-80D3887B9C19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="10425" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="310">
   <si>
     <t>TD_UserName</t>
   </si>
@@ -950,7 +950,19 @@
     <t>AUT_PC_AC_05</t>
   </si>
   <si>
-    <t>Medical Limit</t>
+    <t>RentalCarLossofUseLimit</t>
+  </si>
+  <si>
+    <t>UnderinsuredMotoristPropertyDamageLimit</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>MedicalLimit</t>
   </si>
 </sst>
 </file>
@@ -4680,10 +4692,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB72CC37-2FC1-4BE3-AA8A-0E623FF584F9}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4691,9 +4703,11 @@
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4701,10 +4715,19 @@
         <v>296</v>
       </c>
       <c r="C1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>304</v>
       </c>
@@ -4713,6 +4736,15 @@
       </c>
       <c r="C2" s="19">
         <v>5000</v>
+      </c>
+      <c r="D2" s="19">
+        <v>25000</v>
+      </c>
+      <c r="E2" s="19">
+        <v>1000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/PolicyCenter.xlsx
+++ b/testdata/PolicyCenter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\training2\git\AUT_FW_SEL_JAVA_GW_CM_BC_PC_CC12\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\achandrasekaran\git\AUT_FW_SEL_JAVA_GW_CM_BC_PC_CC\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B0B038-A94A-402B-972F-80D3887B9C19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C11D36-2AEC-40F5-949C-859EE486E47D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="9960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="8" r:id="rId1"/>
@@ -23,17 +23,26 @@
     <sheet name="PA_Coverages" sheetId="10" r:id="rId8"/>
     <sheet name="DropDown_List" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="674">
   <si>
     <t>TD_UserName</t>
   </si>
@@ -963,6 +972,1098 @@
   </si>
   <si>
     <t>MedicalLimit</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_AccountCreation_1_Create New Person Account</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_AccountCreation_2_Search Person</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_AccountCreation_3_Modify Person</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_AccountCreation_4_Withdraw Account</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_AccountCreation_5_Organization Modify</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_AccountCreation_6_Check for Duplicates</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_1_Basic Program</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_2_Standard Program</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_3_Premium Program</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_4_Additional Insured Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_5_Additional Insured Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_6_Additional Insured Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_7_Secondary Named Insured Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_8_Secondary Named Insured Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_9_Secondary Named Insured Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_10_Organization Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_11_Affinity Goup Addition</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_12_Primary Named Insured Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_13_Address Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_14_Address Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_15_Policy Info Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_16_UW Company Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_17_Driver Info Add_New Person</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_18_Driver Info Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_19_Driver Info Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_20_Vehicle Info Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_21_Vehicle Info Remove</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_22_Vehicle Info Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_23_Coverages Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_24_Coverages Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_25_Coverages Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_26_Prior policies entry</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_27_Prior policies Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_28_Prior policies Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_29_Prior losses entry</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_30_Prior losses Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_31_Prior losses Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_32_UW Issues approval</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_33_Policy Details Review</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_34_Forms trigger and ordering validation</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_35_Billing type</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_36_Schedule</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_37_Premium</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_38_Account_New Submission</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_39_Account_Open Policy Transaction_New Submission</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_40_Policy_New Submission</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_41_NewSubmission screen_Organization change</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_42_NewSubmission screen_Producer code change</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_43_NewSubmission screen_Single_Full Application</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_44_NewSubmission screen_Single_FA_Default base State</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_45_NewSubmission screen_Single_FA_Default effective date</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_46_NewSubmission screen_Single_Quick Quote</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_47_NewSubmission screen_Single_QQ__Default base State</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_48_NewSubmission screen_Single_QQ_Default effective date</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_49_NewSubmission screen_Single_QQ_Driver Info Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_50_NewSubmission screen_Single_QQ_Driver Info Remove</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_51_NewSubmission screen_Single_QQ_Vehicle Info Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_52_NewSubmission screen_Single_QQ_Vehicle Info Remove</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_53_NewSubmission screen_Single_QQ_Use Default</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_54_NewSubmission screen_Single_QQ_Quote</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_55_NewSubmission screen_Single_QQ_Full App</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_56_NewSubmission screen_Single_QQ_Version</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_57_NewSubmission screen_Single_QQ_Version_Full App</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_58_NewSubmission screen_Multiple_Full Application</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_59_NewSubmission screen_Multiple_FA_Default base State</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_60_NewSubmission screen_Multiple_FA_Default effective date</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_61_NewSubmission screen_Multiple_Quick Quote</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_62_NewSubmission screen_Multiple_QQ__Default base State</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_63_NewSubmission screen_Multiple_QQ_Default effective date</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_64_Driver Info Add_From Address book</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_65_Driver Info Add_Existing Driver</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_66_Driver Info Add_Add address</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_67_Driver Info Add_Edit address</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_68_Vehicle Info Add_Additional Interest_New Person</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_69_Vehicle Info Add_Additional Interest_New Company</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_70_Vehicle Info Add_Additional Interest_From Address book</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_71_Vehicle Info Add_Additional Interest_Other contacts</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_72_Additional Coverages_Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_73_Additional Coverages_Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_74_Additional Coverages_Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_75_Exclusion and Condition_Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_76_Exclusion and Condition_Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_77_Add UW Issue</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_78_Add Contingency</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_79_Claims</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_80_MVR Report Details</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_81_Request Approval</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_82_Lock for Review</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_83_Submission Quote</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_84_Edit policy transaction</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_85_Release Lock</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_86_Quote_Version</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_87_Quote_Close options</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_88_Bind option_Bind only</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_NewSubmission_89_Submission Bound_Policy number Validation</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Issuance_90_Withdraw Transaction</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Issuance_91_Field Modification</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Issuance_92_Quote</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Issuance_93_Edit policy transaction</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Issuance_94_Issue Policy</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Issuance_95_Issuance Bound screen Validation</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange_96_Basic Program</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange_97_Additional Insured Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange_98_Additional Insured Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange_99_Additional Insured Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange_100_Secondary Named Insured Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange_101_Secondary Named Insured Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange_102_Secondary Named Insured Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange_103_Organization Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange_104_Affinity Goup Addition</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange_105_Primary Named Insured Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange_106_Address Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange_107_Address Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange_108_Policy Info Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange_109_UW Company Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange_110_Driver Info Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange_111_Driver Info Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange_112_Driver Info Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange_113_Vehicle Info Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange_114_Vehicle Info Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange_115_Vehicle Info Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange_116_Coverages Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange_117_Coverages Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange_118_Coverages Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Prior policies entry</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Prior policies Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Prior policies Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Prior losses entry</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Prior losses Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Prior losses Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__UW Issues approval</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Policy Details Review</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Forms trigger and ordering validation</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Billing type</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Schedule</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Premium</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Start Policy change</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Driver Info Add_From Address book</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Driver Info Add_Existing Driver</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Driver Info Add_Add address</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Driver Info Add_Edit address</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Vehicle Info Add_Additional Interest_New Person</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Vehicle Info Add_Additional Interest_New Company</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Vehicle Info Add_Additional Interest_From Address book</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Vehicle Info Add_Additional Interest_Other contacts</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Additional Coverages_Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Additional Coverages_Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Additional Coverages_Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Exclusion and Condition_Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Exclusion and Condition_Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Add UW Issue</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Add Contingency</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Claims</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__MVR Report Details</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Request Approval</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Release Lock</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Quote</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Edit policy transaction</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Issue Policy</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Submission Bound_Policy number Validation</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Withdraw Transaction</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Out-of-Sequence</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_PolicyChange__Preemption</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Cancellation_1_Mid Term Cancellation</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Cancellation_1_New Business Cancellation</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Cancellation_1_Insured Cancellation</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Cancellation_1_Insurer Cancellation</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Cancellation_1_Edit policy transaction</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Cancellation_1_Close option</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Cancellation_1_Cancel Now</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Cancellation_1_Schedule Cancellations</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Cancellation_1_Rescind Cancellation</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Reinstatement__Reinstatement Reason</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Reinstatement__Prior policies entry</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Reinstatement__Prior policies Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Reinstatement__Prior policies Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Reinstatement__Prior losses entry</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Reinstatement__Prior losses Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Reinstatement__Prior losses Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Reinstatement__UW Issues approval</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Reinstatement__Quote</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Reinstatement__Release Lock</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Reinstatement__Edit policy transaction</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Reinstatement__Withdraw Transaction</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Reinstatement__Reinstate</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Reinstatement__Add UW Issue</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Reinstatement__Add Contingency</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Reinstatement__Request Approval</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Change Program</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Additional Insured Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Additional Insured Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Additional Insured Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Secondary Named Insured Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Secondary Named Insured Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Secondary Named Insured Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Organization Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Affinity Goup Addition</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Primary Named Insured Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Address Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Address Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Policy Info Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__UW Company Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Driver Info Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Driver Info Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Driver Info Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Vehicle Info Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Vehicle Info Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Vehicle Info Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Coverages Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Coverages Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Coverages Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Prior policies entry</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Prior policies Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Prior policies Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Prior losses entry</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Prior losses Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Prior losses Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__UW Issues approval</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Policy Details Review</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Forms trigger and ordering validation</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Billing type</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Schedule</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Producer of Record Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Policy Number</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Driver Info Add_From Address book</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Driver Info Add_Existing Driver</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Driver Info Add_Add address</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Driver Info Add_Edit address</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Vehicle Info Add_Additional Interest_New Person</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Vehicle Info Add_Additional Interest_New Company</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Vehicle Info Add_Additional Interest_From Address book</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Vehicle Info Add_Additional Interest_Other contacts</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Additional Coverages_Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Additional Coverages_Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Additional Coverages_Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Exclusion and Condition_Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Exclusion and Condition_Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Add UW Issue</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Add Contingency</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Claims</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__MVR Report Details</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Request Approval</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Release Lock</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Edit policy transaction</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Version</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Issue Policy</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Full Term__Withdraw Transaction</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Change Program</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Term Type</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Producer of Record Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Policy Number</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Driver Info Add_From Address book</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Driver Info Add_Existing Driver</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Driver Info Add_Add address</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Driver Info Add_Edit address</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Vehicle Info Add_Additional Interest_New Person</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Vehicle Info Add_Additional Interest_New Company</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Vehicle Info Add_Additional Interest_From Address book</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Vehicle Info Add_Additional Interest_Other contacts</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Additional Coverages_Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Additional Coverages_Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Additional Coverages_Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Exclusion and Condition_Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Exclusion and Condition_Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Add UW Issue</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Add Contingency</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Claims</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__MVR Report Details</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Request Approval</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Release Lock</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Edit policy transaction</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Version</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Issue Policy</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Withdraw Transaction</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Billing type</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite Remainder of Term__Schedule</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Change Program</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Term Type</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Producer of Record Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Policy Number</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Driver Info Add_From Address book</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Driver Info Add_Existing Driver</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Driver Info Add_Add address</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Driver Info Add_Edit address</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Vehicle Info Add_Additional Interest_New Person</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Vehicle Info Add_Additional Interest_New Company</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Vehicle Info Add_Additional Interest_From Address book</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Vehicle Info Add_Additional Interest_Other contacts</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Additional Coverages_Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Additional Coverages_Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Additional Coverages_Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Exclusion and Condition_Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Exclusion and Condition_Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Add UW Issue</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Add Contingency</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Claims</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__MVR Report Details</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Request Approval</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Release Lock</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Edit policy transaction</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Issue Policy</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Version</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Withdraw Transaction</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Billing type</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Rewrite New Term__Schedule</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Additional Insured Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Additional Insured Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Additional Insured Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Secondary Named Insured Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Secondary Named Insured Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Secondary Named Insured Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Organization Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Affinity Goup Addition</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Primary Named Insured Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Address Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Address Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Policy Info Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__UW Company Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Driver Info Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Driver Info Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Driver Info Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Vehicle Info Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Vehicle Info Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Vehicle Info Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Coverages Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Coverages Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Coverages Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Prior policies entry</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Prior policies Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Prior policies Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Prior losses entry</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Prior losses Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Prior losses Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__UW Issues approval</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Policy Details Review</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Forms trigger and ordering validation</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Billing type</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Schedule</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Change Program</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Edit policy transaction</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Term Type</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Producer of Record Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Driver Info Add_From Address book</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Driver Info Add_Existing Driver</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Driver Info Add_Add address</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Driver Info Add_Edit address</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Vehicle Info Add_Additional Interest_New Person</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Vehicle Info Add_Additional Interest_New Company</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Vehicle Info Add_Additional Interest_From Address book</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Vehicle Info Add_Additional Interest_Other contacts</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Additional Coverages_Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Additional Coverages_Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Additional Coverages_Mod</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Exclusion and Condition_Add</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Exclusion and Condition_Del</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Add UW Issue</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Add Contingency</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Claims</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__MVR Report Details</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Request Approval</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Release Lock</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Issue Policy</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Version</t>
+  </si>
+  <si>
+    <t>AUT_PersonalAuto_PolicyCenter_Renewal__Withdraw Transaction</t>
   </si>
 </sst>
 </file>
@@ -2996,7 +4097,7 @@
   <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4014,15 +5115,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C375"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:D375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="111.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -4128,7 +5229,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
@@ -4139,12 +5240,4016 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>316</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>319</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>320</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>321</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>322</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>323</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>324</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>325</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>326</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>327</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>328</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>329</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>330</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>331</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>332</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>333</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>334</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>335</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>336</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>337</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>338</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>339</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>340</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>341</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>342</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>343</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>344</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>345</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>346</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>347</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>348</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>349</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>350</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>351</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>352</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>353</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>354</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>355</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>356</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>357</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>358</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>359</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>360</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>361</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>362</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>363</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>364</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>365</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>366</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>367</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>368</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>369</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>370</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>371</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>372</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>373</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>374</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>375</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>376</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>377</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>378</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>379</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>380</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>381</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>382</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>383</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>384</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>385</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>386</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>387</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>388</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>389</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>390</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>391</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>392</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>393</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>394</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>395</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>396</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>397</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>398</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>399</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>400</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>401</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>402</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>403</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>404</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>405</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>406</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>407</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>408</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>409</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>410</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>411</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>412</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>413</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>414</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>415</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>416</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>417</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>418</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>419</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>420</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>421</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>422</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>423</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>424</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>425</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>426</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>427</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>428</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>429</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>430</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>431</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>432</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>433</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>434</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>435</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>436</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>437</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>438</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>439</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>440</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>441</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>442</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>443</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>444</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>445</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>446</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>447</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>448</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>449</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>450</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>451</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>452</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>453</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>454</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>455</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>456</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>457</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>458</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>459</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>460</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>461</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>462</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>463</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>464</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>465</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>466</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>467</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>468</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>469</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>470</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>471</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>472</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>473</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>474</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>475</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>476</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>477</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>478</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>479</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>480</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>481</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>482</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>483</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>484</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>485</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>486</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>487</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>488</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>489</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>490</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>491</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>492</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>493</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>494</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>495</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>496</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>497</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>498</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>499</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>500</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>501</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>502</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>503</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>504</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>505</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>506</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>507</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>508</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>509</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>510</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>511</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>512</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>513</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>514</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>515</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>516</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>517</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>518</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>519</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>520</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>521</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>522</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>523</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>524</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>525</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>526</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>527</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>528</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>529</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>530</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>531</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>532</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>533</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>534</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>535</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>536</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>537</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>538</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>539</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>540</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>541</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>542</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>543</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>544</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>545</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>546</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>547</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>548</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>549</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>550</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>551</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>552</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>553</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>554</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>555</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>556</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>557</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>558</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>559</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>560</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>561</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>562</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>563</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>564</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>565</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>566</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>567</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>568</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>569</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>570</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>571</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>572</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>573</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>574</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>575</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>576</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>577</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>578</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>579</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>580</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>581</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>582</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>583</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>584</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>585</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>586</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>587</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>588</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>589</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>590</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>591</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>592</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>593</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>594</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>595</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>596</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>597</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>598</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>599</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>600</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>601</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>602</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>603</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>604</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>605</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>606</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>607</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>608</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>609</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>610</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>611</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>612</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>613</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>614</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>615</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>616</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>617</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>618</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>619</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>620</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>621</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>622</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>623</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>624</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>625</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>626</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>627</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>628</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>629</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>630</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>631</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>632</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>633</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>634</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>635</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>636</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>637</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>638</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>639</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>640</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>641</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>642</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>643</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>644</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>645</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>646</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>647</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>648</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>649</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>650</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>651</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>652</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>653</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>654</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>655</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>656</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>657</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>658</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>659</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>660</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>661</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>662</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>663</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>664</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>665</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>666</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>667</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>668</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>669</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>670</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>649</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>671</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>672</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>673</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>646</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C375" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4694,7 +9799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB72CC37-2FC1-4BE3-AA8A-0E623FF584F9}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/testdata/PolicyCenter.xlsx
+++ b/testdata/PolicyCenter.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\achandrasekaran\git\AUT_FW_SEL_JAVA_GW_CM_BC_PC_CC\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C11D36-2AEC-40F5-949C-859EE486E47D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FB386EC1-3728-4B44-9298-3710488DE5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="9960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="8" r:id="rId1"/>
@@ -23,26 +18,18 @@
     <sheet name="PA_Coverages" sheetId="10" r:id="rId8"/>
     <sheet name="DropDown_List" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="675">
   <si>
     <t>TD_UserName</t>
   </si>
@@ -2064,6 +2051,9 @@
   </si>
   <si>
     <t>AUT_PersonalAuto_PolicyCenter_Renewal__Withdraw Transaction</t>
+  </si>
+  <si>
+    <t>zxczx</t>
   </si>
 </sst>
 </file>
@@ -2117,7 +2107,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2140,11 +2130,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2195,6 +2196,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5115,10 +5122,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C375"/>
+  <dimension ref="A1:C376"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D375"/>
+      <selection activeCell="A359" sqref="A359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9250,6 +9257,17 @@
         <v>1</v>
       </c>
       <c r="C375" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>674</v>
+      </c>
+      <c r="B376" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C376" s="21" t="s">
         <v>2</v>
       </c>
     </row>

--- a/testdata/PolicyCenter.xlsx
+++ b/testdata/PolicyCenter.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FB386EC1-3728-4B44-9298-3710488DE5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIG\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FDBBC9-9237-49D7-A77D-DDE5BBCE659F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="8" r:id="rId1"/>
@@ -18,11 +23,20 @@
     <sheet name="PA_Coverages" sheetId="10" r:id="rId8"/>
     <sheet name="DropDown_List" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2053,7 +2067,7 @@
     <t>AUT_PersonalAuto_PolicyCenter_Renewal__Withdraw Transaction</t>
   </si>
   <si>
-    <t>zxczx</t>
+    <t>AUT_CA_PC_NewSubmission_NewAccount_NewSubmission</t>
   </si>
 </sst>
 </file>
@@ -2107,7 +2121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2130,22 +2144,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2196,11 +2199,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5124,8 +5124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C376"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A359" sqref="A359"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="A376" sqref="A376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5257,7 +5257,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>312</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -5268,7 +5268,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>313</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -5279,7 +5279,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>314</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -5290,7 +5290,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>315</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -5301,7 +5301,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>316</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -5312,7 +5312,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>317</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -5323,7 +5323,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>318</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -5334,7 +5334,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>319</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -5345,7 +5345,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>320</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -5356,7 +5356,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>321</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -5367,7 +5367,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>322</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -5378,7 +5378,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>323</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -5389,7 +5389,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>324</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -5400,7 +5400,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>325</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -5411,7 +5411,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>326</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -5422,7 +5422,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>327</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -5433,7 +5433,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
         <v>328</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -5444,7 +5444,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="4" t="s">
         <v>329</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -5455,7 +5455,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -5466,7 +5466,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="4" t="s">
         <v>331</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -5477,7 +5477,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="4" t="s">
         <v>332</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -5488,7 +5488,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="4" t="s">
         <v>333</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -5499,7 +5499,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="4" t="s">
         <v>334</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -5510,7 +5510,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="4" t="s">
         <v>335</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -5521,7 +5521,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="4" t="s">
         <v>336</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -5532,7 +5532,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="4" t="s">
         <v>337</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -5543,7 +5543,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="4" t="s">
         <v>338</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -5554,7 +5554,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="4" t="s">
         <v>339</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -5565,7 +5565,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="4" t="s">
         <v>340</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -5576,7 +5576,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="4" t="s">
         <v>341</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -5587,7 +5587,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="4" t="s">
         <v>342</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -5598,7 +5598,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="4" t="s">
         <v>343</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -5609,7 +5609,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="4" t="s">
         <v>344</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -5620,7 +5620,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="4" t="s">
         <v>345</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -5631,7 +5631,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="4" t="s">
         <v>346</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -5642,7 +5642,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="4" t="s">
         <v>347</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -5653,7 +5653,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="4" t="s">
         <v>348</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -5664,7 +5664,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="4" t="s">
         <v>349</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -5675,7 +5675,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="4" t="s">
         <v>350</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -5686,7 +5686,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="4" t="s">
         <v>351</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -5697,7 +5697,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -5708,7 +5708,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="4" t="s">
         <v>353</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -5719,7 +5719,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="4" t="s">
         <v>354</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -5730,7 +5730,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="4" t="s">
         <v>355</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -5741,7 +5741,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="4" t="s">
         <v>356</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -5752,7 +5752,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="4" t="s">
         <v>357</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -5763,7 +5763,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="4" t="s">
         <v>358</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -5774,7 +5774,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="4" t="s">
         <v>359</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -5785,7 +5785,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="4" t="s">
         <v>360</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -5796,7 +5796,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="4" t="s">
         <v>361</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -5807,7 +5807,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="4" t="s">
         <v>362</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -5818,7 +5818,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="4" t="s">
         <v>363</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -5829,7 +5829,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="4" t="s">
         <v>364</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -5840,7 +5840,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="4" t="s">
         <v>365</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -5851,7 +5851,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="4" t="s">
         <v>366</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -5862,7 +5862,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="4" t="s">
         <v>367</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -5873,7 +5873,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="4" t="s">
         <v>368</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -5884,7 +5884,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="4" t="s">
         <v>369</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -5895,7 +5895,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="4" t="s">
         <v>370</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -5906,7 +5906,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="4" t="s">
         <v>371</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -5917,7 +5917,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="4" t="s">
         <v>372</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -5928,7 +5928,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="4" t="s">
         <v>373</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -5939,7 +5939,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="4" t="s">
         <v>374</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -5950,7 +5950,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="4" t="s">
         <v>375</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -5961,7 +5961,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="4" t="s">
         <v>376</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -5972,7 +5972,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="4" t="s">
         <v>377</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -5983,7 +5983,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="4" t="s">
         <v>378</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -5994,7 +5994,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="4" t="s">
         <v>379</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -6005,7 +6005,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="4" t="s">
         <v>380</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -6016,7 +6016,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="4" t="s">
         <v>381</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -6027,7 +6027,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="4" t="s">
         <v>382</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -6038,7 +6038,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="4" t="s">
         <v>383</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -6049,7 +6049,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="4" t="s">
         <v>384</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -6060,7 +6060,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="4" t="s">
         <v>385</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -6071,7 +6071,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="4" t="s">
         <v>386</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -6082,7 +6082,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="4" t="s">
         <v>387</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -6093,7 +6093,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="4" t="s">
         <v>388</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -6104,7 +6104,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="4" t="s">
         <v>389</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -6115,7 +6115,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="4" t="s">
         <v>390</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -6126,7 +6126,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="4" t="s">
         <v>391</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -6137,7 +6137,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="4" t="s">
         <v>392</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -6148,7 +6148,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="4" t="s">
         <v>393</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -6159,7 +6159,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="4" t="s">
         <v>394</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -6170,7 +6170,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="4" t="s">
         <v>395</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -6181,7 +6181,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="4" t="s">
         <v>396</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -6192,7 +6192,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="4" t="s">
         <v>397</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -6203,7 +6203,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="4" t="s">
         <v>398</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -6214,7 +6214,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="4" t="s">
         <v>399</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -6225,7 +6225,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="4" t="s">
         <v>400</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -6236,7 +6236,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="4" t="s">
         <v>401</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -6247,7 +6247,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="4" t="s">
         <v>402</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -6258,7 +6258,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="4" t="s">
         <v>403</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -6269,7 +6269,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="4" t="s">
         <v>404</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -6280,7 +6280,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="4" t="s">
         <v>405</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -6291,7 +6291,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="4" t="s">
         <v>406</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -6302,7 +6302,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="4" t="s">
         <v>407</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -6313,7 +6313,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="4" t="s">
         <v>408</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -6324,7 +6324,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="4" t="s">
         <v>409</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -6335,7 +6335,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="4" t="s">
         <v>410</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -6346,7 +6346,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="4" t="s">
         <v>411</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -6357,7 +6357,7 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="4" t="s">
         <v>412</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -6368,7 +6368,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="4" t="s">
         <v>413</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -6379,7 +6379,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="4" t="s">
         <v>414</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -6390,7 +6390,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="4" t="s">
         <v>415</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -6401,7 +6401,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="4" t="s">
         <v>416</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -6412,7 +6412,7 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="4" t="s">
         <v>417</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -6423,7 +6423,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="4" t="s">
         <v>418</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -6434,7 +6434,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="4" t="s">
         <v>419</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -6445,7 +6445,7 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="4" t="s">
         <v>420</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -6456,7 +6456,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="4" t="s">
         <v>421</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -6467,7 +6467,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="4" t="s">
         <v>422</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -6478,7 +6478,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="4" t="s">
         <v>423</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -6489,7 +6489,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" s="4" t="s">
         <v>424</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -6500,7 +6500,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" s="4" t="s">
         <v>425</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -6511,7 +6511,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" s="4" t="s">
         <v>426</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -6522,7 +6522,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" s="4" t="s">
         <v>427</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -6533,7 +6533,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" s="4" t="s">
         <v>428</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -6544,7 +6544,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" s="4" t="s">
         <v>429</v>
       </c>
       <c r="B129" s="2" t="s">
@@ -6555,7 +6555,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" s="4" t="s">
         <v>430</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -6566,7 +6566,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" s="4" t="s">
         <v>431</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -6577,7 +6577,7 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -6588,7 +6588,7 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" s="4" t="s">
         <v>433</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -6599,7 +6599,7 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" s="4" t="s">
         <v>434</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -6610,7 +6610,7 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" s="4" t="s">
         <v>435</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -6621,7 +6621,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" s="4" t="s">
         <v>436</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -6632,7 +6632,7 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" s="4" t="s">
         <v>437</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -6643,7 +6643,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" s="4" t="s">
         <v>438</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -6654,7 +6654,7 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" s="4" t="s">
         <v>439</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -6665,7 +6665,7 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" s="4" t="s">
         <v>440</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -6676,7 +6676,7 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="A141" s="4" t="s">
         <v>441</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -6687,7 +6687,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" s="4" t="s">
         <v>442</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -6698,7 +6698,7 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" s="4" t="s">
         <v>443</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -6709,7 +6709,7 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" s="4" t="s">
         <v>444</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -6720,7 +6720,7 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" s="4" t="s">
         <v>445</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -6731,7 +6731,7 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="A146" s="4" t="s">
         <v>446</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -6742,7 +6742,7 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="A147" s="4" t="s">
         <v>447</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -6753,7 +6753,7 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -6764,7 +6764,7 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" s="4" t="s">
         <v>449</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -6775,7 +6775,7 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" s="4" t="s">
         <v>450</v>
       </c>
       <c r="B150" s="2" t="s">
@@ -6786,7 +6786,7 @@
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" s="4" t="s">
         <v>451</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -6797,7 +6797,7 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152" s="4" t="s">
         <v>452</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -6808,7 +6808,7 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="A153" s="4" t="s">
         <v>453</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -6819,7 +6819,7 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="A154" s="4" t="s">
         <v>454</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -6830,7 +6830,7 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" s="4" t="s">
         <v>455</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -6841,7 +6841,7 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="A156" s="4" t="s">
         <v>456</v>
       </c>
       <c r="B156" s="2" t="s">
@@ -6852,7 +6852,7 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="A157" s="4" t="s">
         <v>457</v>
       </c>
       <c r="B157" s="2" t="s">
@@ -6863,7 +6863,7 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158" s="4" t="s">
         <v>458</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -6874,7 +6874,7 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" s="4" t="s">
         <v>459</v>
       </c>
       <c r="B159" s="2" t="s">
@@ -6885,7 +6885,7 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="A160" s="4" t="s">
         <v>460</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -6896,7 +6896,7 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="A161" s="4" t="s">
         <v>461</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -6907,7 +6907,7 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="A162" s="4" t="s">
         <v>462</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -6918,7 +6918,7 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="A163" s="4" t="s">
         <v>463</v>
       </c>
       <c r="B163" s="2" t="s">
@@ -6929,7 +6929,7 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="A164" s="4" t="s">
         <v>464</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -6940,7 +6940,7 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="A165" s="4" t="s">
         <v>465</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -6951,7 +6951,7 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="A166" s="4" t="s">
         <v>466</v>
       </c>
       <c r="B166" s="2" t="s">
@@ -6962,7 +6962,7 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="A167" s="4" t="s">
         <v>467</v>
       </c>
       <c r="B167" s="2" t="s">
@@ -6973,7 +6973,7 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="A168" s="4" t="s">
         <v>468</v>
       </c>
       <c r="B168" s="2" t="s">
@@ -6984,7 +6984,7 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="A169" s="4" t="s">
         <v>469</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -6995,7 +6995,7 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="A170" s="4" t="s">
         <v>470</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -7006,7 +7006,7 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="A171" s="4" t="s">
         <v>471</v>
       </c>
       <c r="B171" s="2" t="s">
@@ -7017,7 +7017,7 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="A172" s="4" t="s">
         <v>472</v>
       </c>
       <c r="B172" s="2" t="s">
@@ -7028,7 +7028,7 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="A173" s="4" t="s">
         <v>473</v>
       </c>
       <c r="B173" s="2" t="s">
@@ -7039,7 +7039,7 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="A174" s="4" t="s">
         <v>474</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -7050,7 +7050,7 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="A175" s="4" t="s">
         <v>475</v>
       </c>
       <c r="B175" s="2" t="s">
@@ -7061,7 +7061,7 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="A176" s="4" t="s">
         <v>476</v>
       </c>
       <c r="B176" s="2" t="s">
@@ -7072,7 +7072,7 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="A177" s="4" t="s">
         <v>477</v>
       </c>
       <c r="B177" s="2" t="s">
@@ -7083,7 +7083,7 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="A178" s="4" t="s">
         <v>478</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -7094,7 +7094,7 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="A179" s="4" t="s">
         <v>479</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -7105,7 +7105,7 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="A180" s="4" t="s">
         <v>480</v>
       </c>
       <c r="B180" s="2" t="s">
@@ -7116,7 +7116,7 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="A181" s="4" t="s">
         <v>481</v>
       </c>
       <c r="B181" s="2" t="s">
@@ -7127,7 +7127,7 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="A182" s="4" t="s">
         <v>482</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -7138,7 +7138,7 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="A183" s="4" t="s">
         <v>483</v>
       </c>
       <c r="B183" s="2" t="s">
@@ -7149,7 +7149,7 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="A184" s="4" t="s">
         <v>484</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -7160,7 +7160,7 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="A185" s="4" t="s">
         <v>485</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -7171,7 +7171,7 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="A186" s="4" t="s">
         <v>486</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -7182,7 +7182,7 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="A187" s="4" t="s">
         <v>487</v>
       </c>
       <c r="B187" s="2" t="s">
@@ -7193,7 +7193,7 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="A188" s="4" t="s">
         <v>488</v>
       </c>
       <c r="B188" s="2" t="s">
@@ -7204,7 +7204,7 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="A189" s="4" t="s">
         <v>489</v>
       </c>
       <c r="B189" s="2" t="s">
@@ -7215,7 +7215,7 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="A190" s="4" t="s">
         <v>490</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -7226,7 +7226,7 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="A191" s="4" t="s">
         <v>491</v>
       </c>
       <c r="B191" s="2" t="s">
@@ -7237,7 +7237,7 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="A192" s="4" t="s">
         <v>492</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -7248,7 +7248,7 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="A193" s="4" t="s">
         <v>493</v>
       </c>
       <c r="B193" s="2" t="s">
@@ -7259,7 +7259,7 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="A194" s="4" t="s">
         <v>494</v>
       </c>
       <c r="B194" s="2" t="s">
@@ -7270,7 +7270,7 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="A195" s="4" t="s">
         <v>495</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -7281,7 +7281,7 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="A196" s="4" t="s">
         <v>496</v>
       </c>
       <c r="B196" s="2" t="s">
@@ -7292,7 +7292,7 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="A197" s="4" t="s">
         <v>497</v>
       </c>
       <c r="B197" s="2" t="s">
@@ -7303,7 +7303,7 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="A198" s="4" t="s">
         <v>498</v>
       </c>
       <c r="B198" s="2" t="s">
@@ -7314,7 +7314,7 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="A199" s="4" t="s">
         <v>499</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -7325,7 +7325,7 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="A200" s="4" t="s">
         <v>500</v>
       </c>
       <c r="B200" s="2" t="s">
@@ -7336,7 +7336,7 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="A201" s="4" t="s">
         <v>501</v>
       </c>
       <c r="B201" s="2" t="s">
@@ -7347,7 +7347,7 @@
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="A202" s="4" t="s">
         <v>502</v>
       </c>
       <c r="B202" s="2" t="s">
@@ -7358,7 +7358,7 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="A203" s="4" t="s">
         <v>503</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -7369,7 +7369,7 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="A204" s="4" t="s">
         <v>504</v>
       </c>
       <c r="B204" s="2" t="s">
@@ -7380,7 +7380,7 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="A205" s="4" t="s">
         <v>505</v>
       </c>
       <c r="B205" s="2" t="s">
@@ -7391,7 +7391,7 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="A206" s="4" t="s">
         <v>506</v>
       </c>
       <c r="B206" s="2" t="s">
@@ -7402,7 +7402,7 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="A207" s="4" t="s">
         <v>507</v>
       </c>
       <c r="B207" s="2" t="s">
@@ -7413,7 +7413,7 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="A208" s="4" t="s">
         <v>508</v>
       </c>
       <c r="B208" s="2" t="s">
@@ -7424,7 +7424,7 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="A209" s="4" t="s">
         <v>509</v>
       </c>
       <c r="B209" s="2" t="s">
@@ -7435,7 +7435,7 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="A210" s="4" t="s">
         <v>510</v>
       </c>
       <c r="B210" s="2" t="s">
@@ -7446,7 +7446,7 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="A211" s="4" t="s">
         <v>511</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -7457,7 +7457,7 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="A212" s="4" t="s">
         <v>512</v>
       </c>
       <c r="B212" s="2" t="s">
@@ -7468,7 +7468,7 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="A213" s="4" t="s">
         <v>513</v>
       </c>
       <c r="B213" s="2" t="s">
@@ -7479,7 +7479,7 @@
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="A214" s="4" t="s">
         <v>514</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -7490,7 +7490,7 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="A215" s="4" t="s">
         <v>515</v>
       </c>
       <c r="B215" s="2" t="s">
@@ -7501,7 +7501,7 @@
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="A216" s="4" t="s">
         <v>516</v>
       </c>
       <c r="B216" s="2" t="s">
@@ -7512,7 +7512,7 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="A217" s="4" t="s">
         <v>517</v>
       </c>
       <c r="B217" s="2" t="s">
@@ -7523,7 +7523,7 @@
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="A218" s="4" t="s">
         <v>518</v>
       </c>
       <c r="B218" s="2" t="s">
@@ -7534,7 +7534,7 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="A219" s="4" t="s">
         <v>519</v>
       </c>
       <c r="B219" s="2" t="s">
@@ -7545,7 +7545,7 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="A220" s="4" t="s">
         <v>520</v>
       </c>
       <c r="B220" s="2" t="s">
@@ -7556,7 +7556,7 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="A221" s="4" t="s">
         <v>521</v>
       </c>
       <c r="B221" s="2" t="s">
@@ -7567,7 +7567,7 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="A222" s="4" t="s">
         <v>522</v>
       </c>
       <c r="B222" s="2" t="s">
@@ -7578,7 +7578,7 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="A223" s="4" t="s">
         <v>523</v>
       </c>
       <c r="B223" s="2" t="s">
@@ -7589,7 +7589,7 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="A224" s="4" t="s">
         <v>524</v>
       </c>
       <c r="B224" s="2" t="s">
@@ -7600,7 +7600,7 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="A225" s="4" t="s">
         <v>525</v>
       </c>
       <c r="B225" s="2" t="s">
@@ -7611,7 +7611,7 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="A226" s="4" t="s">
         <v>526</v>
       </c>
       <c r="B226" s="2" t="s">
@@ -7622,7 +7622,7 @@
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="A227" s="4" t="s">
         <v>527</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -7633,7 +7633,7 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="A228" s="4" t="s">
         <v>528</v>
       </c>
       <c r="B228" s="2" t="s">
@@ -7644,7 +7644,7 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="A229" s="4" t="s">
         <v>529</v>
       </c>
       <c r="B229" s="2" t="s">
@@ -7655,7 +7655,7 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="A230" s="4" t="s">
         <v>530</v>
       </c>
       <c r="B230" s="2" t="s">
@@ -7666,7 +7666,7 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="A231" s="4" t="s">
         <v>531</v>
       </c>
       <c r="B231" s="2" t="s">
@@ -7677,7 +7677,7 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="A232" s="4" t="s">
         <v>532</v>
       </c>
       <c r="B232" s="2" t="s">
@@ -7688,7 +7688,7 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="A233" s="4" t="s">
         <v>533</v>
       </c>
       <c r="B233" s="2" t="s">
@@ -7699,7 +7699,7 @@
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="A234" s="4" t="s">
         <v>534</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -7710,7 +7710,7 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="A235" s="4" t="s">
         <v>535</v>
       </c>
       <c r="B235" s="2" t="s">
@@ -7721,7 +7721,7 @@
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="A236" s="4" t="s">
         <v>536</v>
       </c>
       <c r="B236" s="2" t="s">
@@ -7732,7 +7732,7 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="A237" s="4" t="s">
         <v>537</v>
       </c>
       <c r="B237" s="2" t="s">
@@ -7743,7 +7743,7 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="A238" s="4" t="s">
         <v>538</v>
       </c>
       <c r="B238" s="2" t="s">
@@ -7754,7 +7754,7 @@
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="A239" s="4" t="s">
         <v>539</v>
       </c>
       <c r="B239" s="2" t="s">
@@ -7765,7 +7765,7 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="A240" s="4" t="s">
         <v>540</v>
       </c>
       <c r="B240" s="2" t="s">
@@ -7776,7 +7776,7 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="A241" s="4" t="s">
         <v>541</v>
       </c>
       <c r="B241" s="2" t="s">
@@ -7787,7 +7787,7 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="A242" s="4" t="s">
         <v>542</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -7798,7 +7798,7 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="A243" s="4" t="s">
         <v>543</v>
       </c>
       <c r="B243" s="2" t="s">
@@ -7809,7 +7809,7 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="A244" s="4" t="s">
         <v>544</v>
       </c>
       <c r="B244" s="2" t="s">
@@ -7820,7 +7820,7 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="A245" s="4" t="s">
         <v>545</v>
       </c>
       <c r="B245" s="2" t="s">
@@ -7831,7 +7831,7 @@
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="A246" s="4" t="s">
         <v>546</v>
       </c>
       <c r="B246" s="2" t="s">
@@ -7842,7 +7842,7 @@
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="A247" s="4" t="s">
         <v>547</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -7853,7 +7853,7 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="A248" s="4" t="s">
         <v>548</v>
       </c>
       <c r="B248" s="2" t="s">
@@ -7864,7 +7864,7 @@
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="A249" s="4" t="s">
         <v>549</v>
       </c>
       <c r="B249" s="2" t="s">
@@ -7875,7 +7875,7 @@
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="A250" s="4" t="s">
         <v>550</v>
       </c>
       <c r="B250" s="2" t="s">
@@ -7886,7 +7886,7 @@
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="A251" s="4" t="s">
         <v>551</v>
       </c>
       <c r="B251" s="2" t="s">
@@ -7897,7 +7897,7 @@
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="A252" s="4" t="s">
         <v>552</v>
       </c>
       <c r="B252" s="2" t="s">
@@ -7908,7 +7908,7 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="A253" s="4" t="s">
         <v>553</v>
       </c>
       <c r="B253" s="2" t="s">
@@ -7919,7 +7919,7 @@
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="A254" s="4" t="s">
         <v>554</v>
       </c>
       <c r="B254" s="2" t="s">
@@ -7930,7 +7930,7 @@
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="A255" s="4" t="s">
         <v>555</v>
       </c>
       <c r="B255" s="2" t="s">
@@ -7941,7 +7941,7 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="A256" s="4" t="s">
         <v>556</v>
       </c>
       <c r="B256" s="2" t="s">
@@ -7952,7 +7952,7 @@
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+      <c r="A257" s="4" t="s">
         <v>557</v>
       </c>
       <c r="B257" s="2" t="s">
@@ -7963,7 +7963,7 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="A258" s="4" t="s">
         <v>558</v>
       </c>
       <c r="B258" s="2" t="s">
@@ -7974,7 +7974,7 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="A259" s="4" t="s">
         <v>559</v>
       </c>
       <c r="B259" s="2" t="s">
@@ -7985,7 +7985,7 @@
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="A260" s="4" t="s">
         <v>560</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -7996,7 +7996,7 @@
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="A261" s="4" t="s">
         <v>561</v>
       </c>
       <c r="B261" s="2" t="s">
@@ -8007,7 +8007,7 @@
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+      <c r="A262" s="4" t="s">
         <v>562</v>
       </c>
       <c r="B262" s="2" t="s">
@@ -8018,7 +8018,7 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+      <c r="A263" s="4" t="s">
         <v>563</v>
       </c>
       <c r="B263" s="2" t="s">
@@ -8029,7 +8029,7 @@
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="A264" s="4" t="s">
         <v>564</v>
       </c>
       <c r="B264" s="2" t="s">
@@ -8040,7 +8040,7 @@
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+      <c r="A265" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B265" s="2" t="s">
@@ -8051,7 +8051,7 @@
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+      <c r="A266" s="4" t="s">
         <v>566</v>
       </c>
       <c r="B266" s="2" t="s">
@@ -8062,7 +8062,7 @@
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+      <c r="A267" s="4" t="s">
         <v>567</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -8073,7 +8073,7 @@
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+      <c r="A268" s="4" t="s">
         <v>568</v>
       </c>
       <c r="B268" s="2" t="s">
@@ -8084,7 +8084,7 @@
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+      <c r="A269" s="4" t="s">
         <v>569</v>
       </c>
       <c r="B269" s="2" t="s">
@@ -8095,7 +8095,7 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+      <c r="A270" s="4" t="s">
         <v>570</v>
       </c>
       <c r="B270" s="2" t="s">
@@ -8106,7 +8106,7 @@
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+      <c r="A271" s="4" t="s">
         <v>571</v>
       </c>
       <c r="B271" s="2" t="s">
@@ -8117,7 +8117,7 @@
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+      <c r="A272" s="4" t="s">
         <v>572</v>
       </c>
       <c r="B272" s="2" t="s">
@@ -8128,7 +8128,7 @@
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+      <c r="A273" s="4" t="s">
         <v>573</v>
       </c>
       <c r="B273" s="2" t="s">
@@ -8139,7 +8139,7 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="A274" s="4" t="s">
         <v>574</v>
       </c>
       <c r="B274" s="2" t="s">
@@ -8150,7 +8150,7 @@
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="A275" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B275" s="2" t="s">
@@ -8161,7 +8161,7 @@
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="A276" s="4" t="s">
         <v>576</v>
       </c>
       <c r="B276" s="2" t="s">
@@ -8172,7 +8172,7 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+      <c r="A277" s="4" t="s">
         <v>577</v>
       </c>
       <c r="B277" s="2" t="s">
@@ -8183,7 +8183,7 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+      <c r="A278" s="4" t="s">
         <v>578</v>
       </c>
       <c r="B278" s="2" t="s">
@@ -8194,7 +8194,7 @@
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="A279" s="4" t="s">
         <v>579</v>
       </c>
       <c r="B279" s="2" t="s">
@@ -8205,7 +8205,7 @@
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="A280" s="4" t="s">
         <v>580</v>
       </c>
       <c r="B280" s="2" t="s">
@@ -8216,7 +8216,7 @@
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="A281" s="4" t="s">
         <v>581</v>
       </c>
       <c r="B281" s="2" t="s">
@@ -8227,7 +8227,7 @@
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="A282" s="4" t="s">
         <v>582</v>
       </c>
       <c r="B282" s="2" t="s">
@@ -8238,7 +8238,7 @@
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="A283" s="4" t="s">
         <v>583</v>
       </c>
       <c r="B283" s="2" t="s">
@@ -8249,7 +8249,7 @@
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="A284" s="4" t="s">
         <v>584</v>
       </c>
       <c r="B284" s="2" t="s">
@@ -8260,7 +8260,7 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="A285" s="4" t="s">
         <v>585</v>
       </c>
       <c r="B285" s="2" t="s">
@@ -8271,7 +8271,7 @@
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="A286" s="4" t="s">
         <v>586</v>
       </c>
       <c r="B286" s="2" t="s">
@@ -8282,7 +8282,7 @@
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+      <c r="A287" s="4" t="s">
         <v>587</v>
       </c>
       <c r="B287" s="2" t="s">
@@ -8293,7 +8293,7 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+      <c r="A288" s="4" t="s">
         <v>588</v>
       </c>
       <c r="B288" s="2" t="s">
@@ -8304,7 +8304,7 @@
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+      <c r="A289" s="4" t="s">
         <v>589</v>
       </c>
       <c r="B289" s="2" t="s">
@@ -8315,7 +8315,7 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="A290" s="4" t="s">
         <v>590</v>
       </c>
       <c r="B290" s="2" t="s">
@@ -8326,7 +8326,7 @@
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+      <c r="A291" s="4" t="s">
         <v>591</v>
       </c>
       <c r="B291" s="2" t="s">
@@ -8337,7 +8337,7 @@
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="A292" s="4" t="s">
         <v>592</v>
       </c>
       <c r="B292" s="2" t="s">
@@ -8348,7 +8348,7 @@
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+      <c r="A293" s="4" t="s">
         <v>593</v>
       </c>
       <c r="B293" s="2" t="s">
@@ -8359,7 +8359,7 @@
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+      <c r="A294" s="4" t="s">
         <v>594</v>
       </c>
       <c r="B294" s="2" t="s">
@@ -8370,7 +8370,7 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="A295" s="4" t="s">
         <v>595</v>
       </c>
       <c r="B295" s="2" t="s">
@@ -8381,7 +8381,7 @@
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+      <c r="A296" s="4" t="s">
         <v>596</v>
       </c>
       <c r="B296" s="2" t="s">
@@ -8392,7 +8392,7 @@
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+      <c r="A297" s="4" t="s">
         <v>597</v>
       </c>
       <c r="B297" s="2" t="s">
@@ -8403,7 +8403,7 @@
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="A298" s="4" t="s">
         <v>598</v>
       </c>
       <c r="B298" s="2" t="s">
@@ -8414,7 +8414,7 @@
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="A299" s="4" t="s">
         <v>599</v>
       </c>
       <c r="B299" s="2" t="s">
@@ -8425,7 +8425,7 @@
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="A300" s="4" t="s">
         <v>600</v>
       </c>
       <c r="B300" s="2" t="s">
@@ -8436,7 +8436,7 @@
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="A301" s="4" t="s">
         <v>601</v>
       </c>
       <c r="B301" s="2" t="s">
@@ -8447,7 +8447,7 @@
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+      <c r="A302" s="4" t="s">
         <v>602</v>
       </c>
       <c r="B302" s="2" t="s">
@@ -8458,7 +8458,7 @@
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+      <c r="A303" s="4" t="s">
         <v>603</v>
       </c>
       <c r="B303" s="2" t="s">
@@ -8469,7 +8469,7 @@
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+      <c r="A304" s="4" t="s">
         <v>604</v>
       </c>
       <c r="B304" s="2" t="s">
@@ -8480,7 +8480,7 @@
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+      <c r="A305" s="4" t="s">
         <v>605</v>
       </c>
       <c r="B305" s="2" t="s">
@@ -8491,7 +8491,7 @@
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+      <c r="A306" s="4" t="s">
         <v>606</v>
       </c>
       <c r="B306" s="2" t="s">
@@ -8502,7 +8502,7 @@
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+      <c r="A307" s="4" t="s">
         <v>607</v>
       </c>
       <c r="B307" s="2" t="s">
@@ -8513,7 +8513,7 @@
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+      <c r="A308" s="4" t="s">
         <v>608</v>
       </c>
       <c r="B308" s="2" t="s">
@@ -8524,7 +8524,7 @@
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+      <c r="A309" s="4" t="s">
         <v>609</v>
       </c>
       <c r="B309" s="2" t="s">
@@ -8535,7 +8535,7 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="A310" s="4" t="s">
         <v>610</v>
       </c>
       <c r="B310" s="2" t="s">
@@ -8546,7 +8546,7 @@
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+      <c r="A311" s="4" t="s">
         <v>611</v>
       </c>
       <c r="B311" s="2" t="s">
@@ -8557,7 +8557,7 @@
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
+      <c r="A312" s="4" t="s">
         <v>612</v>
       </c>
       <c r="B312" s="2" t="s">
@@ -8568,7 +8568,7 @@
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+      <c r="A313" s="4" t="s">
         <v>613</v>
       </c>
       <c r="B313" s="2" t="s">
@@ -8579,7 +8579,7 @@
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+      <c r="A314" s="4" t="s">
         <v>614</v>
       </c>
       <c r="B314" s="2" t="s">
@@ -8590,7 +8590,7 @@
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+      <c r="A315" s="4" t="s">
         <v>615</v>
       </c>
       <c r="B315" s="2" t="s">
@@ -8601,7 +8601,7 @@
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+      <c r="A316" s="4" t="s">
         <v>616</v>
       </c>
       <c r="B316" s="2" t="s">
@@ -8612,7 +8612,7 @@
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="A317" s="4" t="s">
         <v>617</v>
       </c>
       <c r="B317" s="2" t="s">
@@ -8623,7 +8623,7 @@
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+      <c r="A318" s="4" t="s">
         <v>618</v>
       </c>
       <c r="B318" s="2" t="s">
@@ -8634,7 +8634,7 @@
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+      <c r="A319" s="4" t="s">
         <v>619</v>
       </c>
       <c r="B319" s="2" t="s">
@@ -8645,7 +8645,7 @@
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+      <c r="A320" s="4" t="s">
         <v>620</v>
       </c>
       <c r="B320" s="2" t="s">
@@ -8656,7 +8656,7 @@
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+      <c r="A321" s="4" t="s">
         <v>621</v>
       </c>
       <c r="B321" s="2" t="s">
@@ -8667,7 +8667,7 @@
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+      <c r="A322" s="4" t="s">
         <v>622</v>
       </c>
       <c r="B322" s="2" t="s">
@@ -8678,7 +8678,7 @@
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+      <c r="A323" s="4" t="s">
         <v>623</v>
       </c>
       <c r="B323" s="2" t="s">
@@ -8689,7 +8689,7 @@
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+      <c r="A324" s="4" t="s">
         <v>624</v>
       </c>
       <c r="B324" s="2" t="s">
@@ -8700,7 +8700,7 @@
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+      <c r="A325" s="4" t="s">
         <v>625</v>
       </c>
       <c r="B325" s="2" t="s">
@@ -8711,7 +8711,7 @@
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="A326" s="4" t="s">
         <v>626</v>
       </c>
       <c r="B326" s="2" t="s">
@@ -8722,7 +8722,7 @@
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+      <c r="A327" s="4" t="s">
         <v>627</v>
       </c>
       <c r="B327" s="2" t="s">
@@ -8733,7 +8733,7 @@
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+      <c r="A328" s="4" t="s">
         <v>628</v>
       </c>
       <c r="B328" s="2" t="s">
@@ -8744,7 +8744,7 @@
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+      <c r="A329" s="4" t="s">
         <v>629</v>
       </c>
       <c r="B329" s="2" t="s">
@@ -8755,7 +8755,7 @@
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
+      <c r="A330" s="4" t="s">
         <v>630</v>
       </c>
       <c r="B330" s="2" t="s">
@@ -8766,7 +8766,7 @@
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
+      <c r="A331" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B331" s="2" t="s">
@@ -8777,7 +8777,7 @@
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
+      <c r="A332" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B332" s="2" t="s">
@@ -8788,7 +8788,7 @@
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
+      <c r="A333" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B333" s="2" t="s">
@@ -8799,7 +8799,7 @@
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
+      <c r="A334" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B334" s="2" t="s">
@@ -8810,7 +8810,7 @@
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
+      <c r="A335" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B335" s="2" t="s">
@@ -8821,7 +8821,7 @@
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
+      <c r="A336" s="4" t="s">
         <v>636</v>
       </c>
       <c r="B336" s="2" t="s">
@@ -8832,7 +8832,7 @@
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+      <c r="A337" s="4" t="s">
         <v>637</v>
       </c>
       <c r="B337" s="2" t="s">
@@ -8843,7 +8843,7 @@
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
+      <c r="A338" s="4" t="s">
         <v>638</v>
       </c>
       <c r="B338" s="2" t="s">
@@ -8854,7 +8854,7 @@
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
+      <c r="A339" s="4" t="s">
         <v>639</v>
       </c>
       <c r="B339" s="2" t="s">
@@ -8865,7 +8865,7 @@
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
+      <c r="A340" s="4" t="s">
         <v>640</v>
       </c>
       <c r="B340" s="2" t="s">
@@ -8876,7 +8876,7 @@
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
+      <c r="A341" s="4" t="s">
         <v>641</v>
       </c>
       <c r="B341" s="2" t="s">
@@ -8887,7 +8887,7 @@
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+      <c r="A342" s="4" t="s">
         <v>642</v>
       </c>
       <c r="B342" s="2" t="s">
@@ -8898,7 +8898,7 @@
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+      <c r="A343" s="4" t="s">
         <v>643</v>
       </c>
       <c r="B343" s="2" t="s">
@@ -8909,7 +8909,7 @@
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
+      <c r="A344" s="4" t="s">
         <v>644</v>
       </c>
       <c r="B344" s="2" t="s">
@@ -8920,7 +8920,7 @@
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
+      <c r="A345" s="4" t="s">
         <v>645</v>
       </c>
       <c r="B345" s="2" t="s">
@@ -8931,7 +8931,7 @@
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
+      <c r="A346" s="4" t="s">
         <v>646</v>
       </c>
       <c r="B346" s="2" t="s">
@@ -8942,7 +8942,7 @@
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
+      <c r="A347" s="4" t="s">
         <v>647</v>
       </c>
       <c r="B347" s="2" t="s">
@@ -8953,7 +8953,7 @@
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
+      <c r="A348" s="4" t="s">
         <v>648</v>
       </c>
       <c r="B348" s="2" t="s">
@@ -8964,7 +8964,7 @@
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
+      <c r="A349" s="4" t="s">
         <v>649</v>
       </c>
       <c r="B349" s="2" t="s">
@@ -8975,7 +8975,7 @@
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
+      <c r="A350" s="4" t="s">
         <v>650</v>
       </c>
       <c r="B350" s="2" t="s">
@@ -8986,7 +8986,7 @@
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
+      <c r="A351" s="4" t="s">
         <v>651</v>
       </c>
       <c r="B351" s="2" t="s">
@@ -8997,7 +8997,7 @@
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+      <c r="A352" s="4" t="s">
         <v>652</v>
       </c>
       <c r="B352" s="2" t="s">
@@ -9008,7 +9008,7 @@
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+      <c r="A353" s="4" t="s">
         <v>653</v>
       </c>
       <c r="B353" s="2" t="s">
@@ -9019,7 +9019,7 @@
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+      <c r="A354" s="4" t="s">
         <v>654</v>
       </c>
       <c r="B354" s="2" t="s">
@@ -9030,7 +9030,7 @@
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+      <c r="A355" s="4" t="s">
         <v>655</v>
       </c>
       <c r="B355" s="2" t="s">
@@ -9041,7 +9041,7 @@
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+      <c r="A356" s="4" t="s">
         <v>656</v>
       </c>
       <c r="B356" s="2" t="s">
@@ -9052,7 +9052,7 @@
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
+      <c r="A357" s="4" t="s">
         <v>657</v>
       </c>
       <c r="B357" s="2" t="s">
@@ -9063,7 +9063,7 @@
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
+      <c r="A358" s="4" t="s">
         <v>658</v>
       </c>
       <c r="B358" s="2" t="s">
@@ -9074,7 +9074,7 @@
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+      <c r="A359" s="4" t="s">
         <v>659</v>
       </c>
       <c r="B359" s="2" t="s">
@@ -9085,7 +9085,7 @@
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
+      <c r="A360" s="4" t="s">
         <v>660</v>
       </c>
       <c r="B360" s="2" t="s">
@@ -9096,7 +9096,7 @@
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
+      <c r="A361" s="4" t="s">
         <v>661</v>
       </c>
       <c r="B361" s="2" t="s">
@@ -9107,7 +9107,7 @@
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
+      <c r="A362" s="4" t="s">
         <v>662</v>
       </c>
       <c r="B362" s="2" t="s">
@@ -9118,7 +9118,7 @@
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
+      <c r="A363" s="4" t="s">
         <v>663</v>
       </c>
       <c r="B363" s="2" t="s">
@@ -9129,7 +9129,7 @@
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
+      <c r="A364" s="4" t="s">
         <v>664</v>
       </c>
       <c r="B364" s="2" t="s">
@@ -9140,7 +9140,7 @@
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
+      <c r="A365" s="4" t="s">
         <v>665</v>
       </c>
       <c r="B365" s="2" t="s">
@@ -9151,7 +9151,7 @@
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
+      <c r="A366" s="4" t="s">
         <v>666</v>
       </c>
       <c r="B366" s="2" t="s">
@@ -9162,7 +9162,7 @@
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
+      <c r="A367" s="4" t="s">
         <v>667</v>
       </c>
       <c r="B367" s="2" t="s">
@@ -9173,7 +9173,7 @@
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
+      <c r="A368" s="4" t="s">
         <v>668</v>
       </c>
       <c r="B368" s="2" t="s">
@@ -9184,7 +9184,7 @@
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
+      <c r="A369" s="4" t="s">
         <v>669</v>
       </c>
       <c r="B369" s="2" t="s">
@@ -9195,7 +9195,7 @@
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
+      <c r="A370" s="4" t="s">
         <v>670</v>
       </c>
       <c r="B370" s="2" t="s">
@@ -9206,7 +9206,7 @@
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
+      <c r="A371" s="4" t="s">
         <v>649</v>
       </c>
       <c r="B371" s="2" t="s">
@@ -9217,7 +9217,7 @@
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
+      <c r="A372" s="4" t="s">
         <v>671</v>
       </c>
       <c r="B372" s="2" t="s">
@@ -9228,7 +9228,7 @@
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
+      <c r="A373" s="4" t="s">
         <v>672</v>
       </c>
       <c r="B373" s="2" t="s">
@@ -9239,7 +9239,7 @@
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
+      <c r="A374" s="4" t="s">
         <v>673</v>
       </c>
       <c r="B374" s="2" t="s">
@@ -9250,7 +9250,7 @@
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
+      <c r="A375" s="4" t="s">
         <v>646</v>
       </c>
       <c r="B375" s="2" t="s">
@@ -9261,13 +9261,13 @@
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
+      <c r="A376" s="4" t="s">
         <v>674</v>
       </c>
       <c r="B376" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C376" s="21" t="s">
+      <c r="C376" s="3" t="s">
         <v>2</v>
       </c>
     </row>

--- a/testdata/PolicyCenter.xlsx
+++ b/testdata/PolicyCenter.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIG\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FDBBC9-9237-49D7-A77D-DDE5BBCE659F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FF369C-BA24-4F7F-B1D8-9C2458F4C8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="8" r:id="rId1"/>
     <sheet name="Coverage" sheetId="7" r:id="rId2"/>
     <sheet name="login" sheetId="1" r:id="rId3"/>
-    <sheet name="createAccount" sheetId="2" r:id="rId4"/>
-    <sheet name="organizations" sheetId="9" r:id="rId5"/>
-    <sheet name="Policy" sheetId="3" r:id="rId6"/>
-    <sheet name="AcctSummary" sheetId="5" r:id="rId7"/>
-    <sheet name="PA_Coverages" sheetId="10" r:id="rId8"/>
-    <sheet name="DropDown_List" sheetId="11" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId4"/>
+    <sheet name="createAccount" sheetId="2" r:id="rId5"/>
+    <sheet name="organizations" sheetId="9" r:id="rId6"/>
+    <sheet name="Policy" sheetId="3" r:id="rId7"/>
+    <sheet name="AcctSummary" sheetId="5" r:id="rId8"/>
+    <sheet name="PA_Coverages" sheetId="10" r:id="rId9"/>
+    <sheet name="DropDown_List" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4099,6 +4100,69 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC99AEE-DABB-4E59-B6CF-2F1DDF9B2D9F}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E041C3-4934-4F0F-A635-994A23E11089}">
   <dimension ref="A1:H119"/>
@@ -5124,7 +5188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C376"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A355" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A355" workbookViewId="0">
       <selection activeCell="A376" sqref="A376"/>
     </sheetView>
   </sheetViews>
@@ -9278,6 +9342,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D714C82B-EDE3-4CCF-8DD9-FA56DE41A7F4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3520C8-D792-4977-99E0-C45876A8E20A}">
   <dimension ref="A1:X3"/>
   <sheetViews>
@@ -9507,7 +9583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CB62B0-3E14-40DE-9CB1-C3C158CCA48E}">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -9618,7 +9694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B240F2F-8AD3-49E3-9150-9222387F22C2}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -9723,7 +9799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6705243-A037-4CA9-B29E-68E745D48062}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -9813,7 +9889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB72CC37-2FC1-4BE3-AA8A-0E623FF584F9}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -9886,67 +9962,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC99AEE-DABB-4E59-B6CF-2F1DDF9B2D9F}">
-  <dimension ref="A1:A9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>